--- a/MyTestAccountPasswords.xlsx
+++ b/MyTestAccountPasswords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>gyskysm_schrockescu_1372209832@tfbnw.net</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>savingsonscreen_xkbqzhl_savingsonscreen@tfbnw.net</t>
+  </si>
+  <si>
+    <t>ISS08030</t>
+  </si>
+  <si>
+    <t>screensavingsapp@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +516,14 @@
       </c>
       <c r="B18">
         <v>548932111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -525,8 +539,9 @@
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A17" r:id="rId10" display="mailto:screensaver_catnvpn_screensaver@tfbnw.net"/>
     <hyperlink ref="A18" r:id="rId11" display="mailto:savingsonscreen_xkbqzhl_savingsonscreen@tfbnw.net"/>
+    <hyperlink ref="A20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/MyTestAccountPasswords.xlsx
+++ b/MyTestAccountPasswords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="5130"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14340" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>gyskysm_schrockescu_1372209832@tfbnw.net</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>screensavingsapp@gmail.com</t>
+  </si>
+  <si>
+    <t>pasword</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,75 +439,86 @@
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -528,18 +548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A17" r:id="rId10" display="mailto:screensaver_catnvpn_screensaver@tfbnw.net"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A20" r:id="rId10"/>
     <hyperlink ref="A18" r:id="rId11" display="mailto:savingsonscreen_xkbqzhl_savingsonscreen@tfbnw.net"/>
-    <hyperlink ref="A20" r:id="rId12"/>
+    <hyperlink ref="A17" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
